--- a/Benchmark-Models/Hass_PONE2017/Data/model1_data16.xlsx
+++ b/Benchmark-Models/Hass_PONE2017/Data/model1_data16.xlsx
@@ -282,16 +282,16 @@
         <v>15.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.24385292573280368</v>
+        <v>0.24388940336973317</v>
       </c>
       <c r="C2" t="n">
-        <v>0.27168504217113043</v>
+        <v>0.2717088813465775</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3243153912901572</v>
+        <v>0.3242989702059408</v>
       </c>
       <c r="E2" t="n">
-        <v>0.32768716399111597</v>
+        <v>0.3276097412574192</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
